--- a/智能信息检索/智能信息检索题库.xlsx
+++ b/智能信息检索/智能信息检索题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\智能信息检索\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3F1834-A840-4CE9-8329-652A2006117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C97F06-C631-4FA5-B53D-C9A66CA3E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="311">
   <si>
     <t>原始序号</t>
   </si>
@@ -1288,6 +1288,10 @@
   </si>
   <si>
     <t>设查询为 'information on cars', 文档内容为 'information on trucks,information on planes,information on trains'. 要求: 计算Jaccard系数时不考虑标点符号, 计算结果用简化的分数形式(x/y)表示。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A | B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1695,11 +1699,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1914,7 +1919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>49</v>
       </c>
@@ -1941,7 +1946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>27</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1991,7 +1996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>91</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2041,7 +2046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>93</v>
       </c>
@@ -2068,7 +2073,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>26</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>110</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>50</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>89</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2193,7 +2198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>73</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>74</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>95</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>94</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>61</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>72</v>
       </c>
@@ -2356,7 +2361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>32</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>78</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>69</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>102</v>
       </c>
@@ -2495,7 +2500,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>33</v>
       </c>
@@ -2521,7 +2526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>101</v>
       </c>
@@ -2550,7 +2555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>59</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>103</v>
       </c>
@@ -2608,7 +2613,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>18</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>109</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>100</v>
       </c>
@@ -2695,7 +2700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>99</v>
       </c>
@@ -2724,7 +2729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>20</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>44</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2825,7 +2830,7 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>86</v>
       </c>
@@ -2848,7 +2853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>75</v>
       </c>
@@ -2871,7 +2876,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>79</v>
       </c>
@@ -2898,7 +2903,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>57</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2944,7 +2949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>60</v>
       </c>
@@ -2967,7 +2972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>56</v>
       </c>
@@ -2990,8 +2995,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>38</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>67</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>87</v>
       </c>
@@ -3091,7 +3096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>46</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>58</v>
       </c>
@@ -3137,7 +3142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>51</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>80</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>62</v>
       </c>
@@ -3237,7 +3242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>81</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>22</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>88</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>85</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>24</v>
       </c>
@@ -3356,7 +3361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>35</v>
       </c>
@@ -3383,7 +3388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3406,7 +3411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>7</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>52</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>8</v>
       </c>
@@ -3475,7 +3480,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>66</v>
       </c>
@@ -3498,7 +3503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>37</v>
       </c>
@@ -3521,7 +3526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>34</v>
       </c>
@@ -3544,7 +3549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>16</v>
       </c>
@@ -3571,7 +3576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>25</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>17</v>
       </c>
@@ -3621,7 +3626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>42</v>
       </c>
@@ -3648,7 +3653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>55</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>11</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>53</v>
       </c>
@@ -3717,7 +3722,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -4261,7 +4266,7 @@
         <v>167</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="F99" t="s">
         <v>307</v>
@@ -4440,6 +4445,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I105" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="多选题"/>
+        <filter val="选择题"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I105">
       <sortCondition ref="C2:C105"/>
       <sortCondition ref="D2:D105"/>

--- a/智能信息检索/智能信息检索题库.xlsx
+++ b/智能信息检索/智能信息检索题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\智能信息检索\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C97F06-C631-4FA5-B53D-C9A66CA3E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D5B2C8-76B2-41FE-933E-7E9E9E700615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="387">
   <si>
     <t>原始序号</t>
   </si>
@@ -1293,6 +1293,234 @@
   <si>
     <t>A | B</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询1:返回结果={d2,d4,d5,d6,d7},相关文档集={d2,d4,d6,d10}；查询2:返回结果={d1,d2,d4,d7,d8},相关文档集={d1,d3,d7,d9}。计算查询1的平均正确率AP（只对返回的相关文档进行计算）</t>
+  </si>
+  <si>
+    <t>AP1 = (1/1 + 2/2 + 3/4)/3 = 11/12 ≈ 0.92</t>
+  </si>
+  <si>
+    <t>查询1:返回结果={d2,d4,d5,d6,d7},相关文档集={d2,d4,d6,d10}；查询2:返回结果={d1,d2,d4,d7,d8},相关文档集={d1,d3,d7,d9}。计算查询1和查询2的MAP</t>
+  </si>
+  <si>
+    <t>AP1 = (1/1 + 2/2 + 3/4 + 4/5)/4 = 0.92；AP2 = (1/1 + 2/4)/2 = 0.75；MAP = (0.92 + 0.75)/2 = 0.835</t>
+  </si>
+  <si>
+    <t>设有一个查询q，返回结果是{d1,d2,d3,d4,d5}，实际相关文档是{d2,d3,d5,d7}。求查询q的正确率、召回率及F值（β=1）</t>
+  </si>
+  <si>
+    <t>正确率=3/5=0.6；召回率=3/4=0.75；F值=2*0.6*0.75/(0.6+0.75)≈0.67</t>
+  </si>
+  <si>
+    <t>设有一个查询q,返回结果是{d1,d2,d3,d4,d5},实际相关文档是{d1,d2,d6,d7}。求查询q的正确率、召回率及F值（β=1）</t>
+  </si>
+  <si>
+    <t>正确率=2/5=0.4；召回率=2/4=0.5；F值=2*0.4*0.5/(0.4+0.5)≈0.44</t>
+  </si>
+  <si>
+    <t>倒排记录表（4,10,11,12,15,62,63,265,268,270,400）间距表（4,6,1,1,3,47,1,202,3,2,130）用可变字节码编码：1)使用1字节编码的最大间距；2)使用2字节编码的最大间距；3)总空间消耗</t>
+  </si>
+  <si>
+    <t>1) 127；2) 16383；3) 13B</t>
+  </si>
+  <si>
+    <t>设两个查询Q1、Q2相关文档数分别为80和40，检索出60个结果（正确48个）和30个结果（正确21个）。求MacroP、MacroR、MicroP、MicroR</t>
+  </si>
+  <si>
+    <t>MacroP=0.75；MacroR=0.5625；MicroP≈0.767；MicroR=0.575</t>
+  </si>
+  <si>
+    <t>设查询q=(0,1,0,0,0,0,0,0,1)，d1=(1,1,0,1,0,0,0,0,1)，d2=(0,1,0,0,1,0,1,1,1)，d3=(0,0,1,0,1,1,0,1,0)。d1,d2相关，d3不相关。求：1)相关文档质心向量dr和不相关文档质心向量dnr；2)用Rocchio算法（α=β=γ=1）求修改后的查询向量qm</t>
+  </si>
+  <si>
+    <t>1) dr=(0.5,1,0,0.5,0.5,0,0.5,0.5,1)；dnr=(0,0,1,0,1,1,0,1,0)；2) qm=(0.5,2,0,0.5,0,0,0.5,0,2)</t>
+  </si>
+  <si>
+    <t>在10000篇文档中，某查询相关文档总数8，系统返回前20个结果序列：RRNNN NNNRN RNNNR NNNNR。求：1)P@20；2)F值（β=1）；3)AP</t>
+  </si>
+  <si>
+    <t>1) 0.3；2) ≈0.43；3) ≈0.56</t>
+  </si>
+  <si>
+    <t>什么是词项频率和文档频率？</t>
+  </si>
+  <si>
+    <t>词项频率是词项在文档中出现的次数；文档频率是出现某词项的文档数目</t>
+  </si>
+  <si>
+    <t>索引压缩技术除节省磁盘空间外还有什么优点？</t>
+  </si>
+  <si>
+    <t>增加高速缓存利用率；加快磁盘到内存的数据传输速度</t>
+  </si>
+  <si>
+    <t>什么是词条归一化？</t>
+  </si>
+  <si>
+    <t>将不完全一致的多个词条归纳成等价类以便匹配的过程</t>
+  </si>
+  <si>
+    <t>什么是停用词？常见生成方法是什么？</t>
+  </si>
+  <si>
+    <t>停用词是指在信息检索中，对于搜索没有实际帮助的词，如“的”、“是”等。常见生成方法是按文档集频率排序后手工选择与主题关系不大的词。</t>
+  </si>
+  <si>
+    <t>什么是信息检索？</t>
+  </si>
+  <si>
+    <t>从大规模非结构化数据中找出满足用户信息需求的资料的过程</t>
+  </si>
+  <si>
+    <t>什么是布尔查询？</t>
+  </si>
+  <si>
+    <t>利用AND/OR/NOT操作符连接词项的查询</t>
+  </si>
+  <si>
+    <t>含位置信息的倒排记录表能处理短语查询和邻近查询</t>
+  </si>
+  <si>
+    <t>Porter算法是一种词形归并算法</t>
+  </si>
+  <si>
+    <t>可变字节码只能按字节编码</t>
+  </si>
+  <si>
+    <t>BSBI和SPIII算法都应用外部排序</t>
+  </si>
+  <si>
+    <t>词干还原通常合并多个派生词</t>
+  </si>
+  <si>
+    <t>SPIII算法内存消耗少于BSBI算法</t>
+  </si>
+  <si>
+    <t>归一化文档向量的内积等于文档相似度</t>
+  </si>
+  <si>
+    <t>γ编码是按字节压缩的编码方法</t>
+  </si>
+  <si>
+    <t>词干还原和词形归并都减少词的屈折变化</t>
+  </si>
+  <si>
+    <t>文档频率越大，逆文档频率越小</t>
+  </si>
+  <si>
+    <t>______是将字符序列拆分成子序列的过程，每个子序列称为______</t>
+  </si>
+  <si>
+    <t>词条化 | 词条</t>
+  </si>
+  <si>
+    <t>基于______的倒排记录合并算法可加快合并过程</t>
+  </si>
+  <si>
+    <t>跳表</t>
+  </si>
+  <si>
+    <t>用连续词项间公共前缀压缩词典的方法叫______</t>
+  </si>
+  <si>
+    <t>前端编码</t>
+  </si>
+  <si>
+    <t>查询"information on cars"与文档"information on trucks..."的Jaccard系数为______</t>
+  </si>
+  <si>
+    <t>信息检索是从大规模______数据中找出满足用户______的过程</t>
+  </si>
+  <si>
+    <t>非结构化 | 信息需求</t>
+  </si>
+  <si>
+    <t>MapReduce分为______和______两个阶段</t>
+  </si>
+  <si>
+    <t>map | reduce</t>
+  </si>
+  <si>
+    <t>词项在文档集中出现的频率称为______</t>
+  </si>
+  <si>
+    <t>文档集频率</t>
+  </si>
+  <si>
+    <t>可变字节码的延续位为______时表示当前是间距编码的末字节</t>
+  </si>
+  <si>
+    <t>文档集1000篇，相关40篇，检索100篇中相关20篇：正确率______%，召回率______%</t>
+  </si>
+  <si>
+    <t>20 | 50</t>
+  </si>
+  <si>
+    <t>词项在文档中出现次数称为______</t>
+  </si>
+  <si>
+    <t>词项频率</t>
+  </si>
+  <si>
+    <t>支持通配符查询的索引是？</t>
+  </si>
+  <si>
+    <t>A. 轮排索引 | B. 以上都不对 | C. k-gram索引 | D. 位置索引</t>
+  </si>
+  <si>
+    <t>MapReduce中Master分配任务给？</t>
+  </si>
+  <si>
+    <t>A. 索引器和分析器 | B. Map和Reduce | C. 排序器和归并器 | D. 分词器和解析器</t>
+  </si>
+  <si>
+    <t>属于有损压缩的技术是？</t>
+  </si>
+  <si>
+    <t>A. 停用词剔除和词干还原 | B. 可变字节码 | C. 前端编码 | D. γ编码</t>
+  </si>
+  <si>
+    <t>属于词典压缩技术的是？</t>
+  </si>
+  <si>
+    <t>A. γ编码 | B. 霍夫曼编码 | C. 前端编码和按块存储 | D. 位置索引</t>
+  </si>
+  <si>
+    <t>非结构化数据包括？</t>
+  </si>
+  <si>
+    <t>A. 数据库表格 | B. 网页和文本 | C. Excel表格 | D. XML文件</t>
+  </si>
+  <si>
+    <t>字符串"paris"与"alice"的编辑距离？</t>
+  </si>
+  <si>
+    <t>A. 4 | B. 3 | C. 5 | D. 6</t>
+  </si>
+  <si>
+    <t>词项t的文档集频率指？</t>
+  </si>
+  <si>
+    <t>A. 文档集中t出现的总次数 | B. 包含t的文档数 | C. 单个文档中t的出现次数 | D. t的逆文档频率</t>
+  </si>
+  <si>
+    <t>根据Heaps定律，文档数增加时词汇量？</t>
+  </si>
+  <si>
+    <t>A. 不变 | B. 减少 | C. 持续增长 | D. 随机波动</t>
+  </si>
+  <si>
+    <t>短语查询使用的数据结构是？</t>
+  </si>
+  <si>
+    <t>A. 双词索引 | B. 词项-文档矩阵 | C. 位置索引 | D. 跳表</t>
+  </si>
+  <si>
+    <t>索引压缩通常属于？</t>
+  </si>
+  <si>
+    <t>A. 无损压缩 | B. 有损压缩 | C. 混合压缩 | D. 以上都不是</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1397,6 +1625,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1699,12 +1928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1745,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>84</v>
       </c>
@@ -1774,7 +2002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>63</v>
       </c>
@@ -1832,7 +2060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>97</v>
       </c>
@@ -1861,7 +2089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>65</v>
       </c>
@@ -1890,7 +2118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>71</v>
       </c>
@@ -1919,136 +2147,104 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
+      <c r="D9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>186</v>
+        <v>313</v>
+      </c>
+      <c r="E10" t="s">
+        <v>314</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -2056,51 +2252,49 @@
       <c r="C13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>188</v>
+      <c r="D13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>102</v>
@@ -2108,49 +2302,36 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
-        <v>182</v>
+      <c r="D15" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -2158,49 +2339,40 @@
       <c r="C17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>286</v>
+      <c r="D17" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>322</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -2209,25 +2381,25 @@
         <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -2236,514 +2408,384 @@
         <v>187</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>283</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>95</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>94</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" t="s">
+        <v>316</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>102</v>
       </c>
       <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" t="s">
+        <v>332</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>74</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>95</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
         <v>152</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F34" t="s">
         <v>74</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>72</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D35" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F36" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D37" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F37" t="s">
         <v>74</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>69</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>102</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>101</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>59</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>103</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>18</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>109</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>100</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>99</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
         <v>74</v>
@@ -2751,523 +2793,565 @@
       <c r="G38" t="s">
         <v>12</v>
       </c>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>240</v>
+        <v>73</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
-        <v>304</v>
-      </c>
-      <c r="E40" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41"/>
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>347</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>343</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
         <v>102</v>
       </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>345</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>102</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>59</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>18</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="I56" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>100</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
         <v>102</v>
       </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" t="s">
-        <v>277</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
-        <v>79</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>60</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" t="s">
-        <v>303</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
-        <v>38</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>46</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>242</v>
-      </c>
-      <c r="E54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>58</v>
-      </c>
-      <c r="B55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>51</v>
-      </c>
-      <c r="B56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>243</v>
-      </c>
-      <c r="E56" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
-        <v>80</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="2" t="s">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>81</v>
-      </c>
-      <c r="B60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>102</v>
@@ -3276,121 +3360,108 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>88</v>
-      </c>
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>44</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D62" t="s">
-        <v>173</v>
-      </c>
-      <c r="E62" t="s">
-        <v>174</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>85</v>
-      </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
+      <c r="D62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
-      <c r="H63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
-        <v>24</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2" t="s">
+    </row>
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="2" t="s">
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
         <v>35</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
-        <v>35</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="2" t="s">
+    </row>
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>102</v>
@@ -3399,10 +3470,10 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -3411,55 +3482,50 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>79</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D67" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" t="s">
-        <v>111</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>102</v>
-      </c>
+      <c r="D67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>358</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
       </c>
-      <c r="H68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
         <v>102</v>
@@ -3468,21 +3534,21 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
         <v>102</v>
@@ -3491,44 +3557,35 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>37</v>
-      </c>
-      <c r="B71" t="s">
-        <v>102</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" t="s">
-        <v>135</v>
+        <v>355</v>
+      </c>
+      <c r="E71" s="8">
+        <v>45660</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
         <v>102</v>
@@ -3537,48 +3594,44 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
-        <v>16</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="D73" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
         <v>24</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
@@ -3587,98 +3640,80 @@
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>17</v>
-      </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="E75" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
       </c>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
-        <v>42</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2" t="s">
+    </row>
+    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>55</v>
-      </c>
-      <c r="B77" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D76" t="s">
+        <v>365</v>
+      </c>
+      <c r="E76" t="s">
+        <v>366</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>38</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D77" t="s">
-        <v>144</v>
-      </c>
-      <c r="E77" t="s">
-        <v>145</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
         <v>102</v>
@@ -3687,21 +3722,21 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>210</v>
+        <v>155</v>
+      </c>
+      <c r="E78" t="s">
+        <v>156</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
         <v>102</v>
@@ -3710,752 +3745,1617 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
-        <v>2</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" t="s">
+        <v>236</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
-        <v>90</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>85</v>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>351</v>
+      </c>
+      <c r="E81" t="s">
+        <v>352</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2">
-        <v>47</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>55</v>
+      <c r="A82">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
         <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="2">
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>362</v>
+      </c>
+      <c r="E84">
         <v>1</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>14</v>
+      <c r="G84" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>77</v>
-      </c>
-      <c r="B85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" t="s">
-        <v>162</v>
-      </c>
-      <c r="E85" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" t="s">
-        <v>163</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>94</v>
+      <c r="A85" s="2">
+        <v>80</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
         <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
-      </c>
-      <c r="F86" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
         <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2">
-        <v>29</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>44</v>
+      <c r="A89">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>24</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>14</v>
-      </c>
-      <c r="B92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" t="s">
-        <v>115</v>
-      </c>
-      <c r="E92" t="s">
-        <v>89</v>
-      </c>
-      <c r="F92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
+        <v>35</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" t="s">
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
-        <v>104</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2">
-        <v>64</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>66</v>
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="2">
-        <v>21</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>32</v>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" t="s">
+        <v>338</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>70</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
         <v>102</v>
       </c>
-      <c r="C97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
-        <v>108</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>100</v>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" t="s">
+        <v>244</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>83</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" t="s">
+        <v>334</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-      <c r="C99" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99" t="s">
-        <v>167</v>
-      </c>
-      <c r="E99" t="s">
-        <v>310</v>
-      </c>
-      <c r="F99" t="s">
-        <v>307</v>
-      </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="2">
-        <v>96</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>90</v>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" t="s">
+        <v>113</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>76</v>
-      </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" t="s">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
-      </c>
-      <c r="H101" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>306</v>
-      </c>
-      <c r="F102" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="2">
-        <v>12</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>22</v>
+      <c r="A103">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" t="s">
+        <v>135</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="2">
-        <v>68</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>68</v>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>363</v>
+      </c>
+      <c r="E104" t="s">
+        <v>364</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
         <v>102</v>
       </c>
       <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" t="s">
+        <v>133</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>16</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>356</v>
+      </c>
+      <c r="E107" t="s">
+        <v>357</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>25</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" t="s">
+        <v>120</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>42</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>353</v>
+      </c>
+      <c r="E111" t="s">
+        <v>354</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>55</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" t="s">
+        <v>145</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>53</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>245</v>
+      </c>
+      <c r="E114" t="s">
+        <v>142</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>90</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
         <v>10</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D116" t="s">
+        <v>369</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>370</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
+        <v>47</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>31</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>129</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>379</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>380</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>383</v>
+      </c>
+      <c r="E121" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" t="s">
+        <v>384</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>77</v>
+      </c>
+      <c r="B122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>162</v>
+      </c>
+      <c r="E122" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" t="s">
+        <v>163</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>375</v>
+      </c>
+      <c r="E123" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123" t="s">
+        <v>376</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>381</v>
+      </c>
+      <c r="E124" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" t="s">
+        <v>382</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>63</v>
+      </c>
+      <c r="F125" t="s">
+        <v>125</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
+        <v>54</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>106</v>
+      </c>
+      <c r="B127" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" t="s">
+        <v>179</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
+        <v>29</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>126</v>
+      </c>
+      <c r="E129" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" t="s">
+        <v>127</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>36</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>115</v>
+      </c>
+      <c r="E131" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131" t="s">
+        <v>116</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>82</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>373</v>
+      </c>
+      <c r="E133" t="s">
+        <v>63</v>
+      </c>
+      <c r="F133" t="s">
+        <v>374</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>371</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>372</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>385</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>386</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>104</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>64</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>21</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>70</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" t="s">
+        <v>158</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>108</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>96</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>76</v>
+      </c>
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>160</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>161</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>105</v>
+      </c>
+      <c r="B143" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" t="s">
+        <v>306</v>
+      </c>
+      <c r="F143" t="s">
+        <v>177</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>12</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>68</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>367</v>
+      </c>
+      <c r="E146" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" t="s">
+        <v>368</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>107</v>
+      </c>
+      <c r="B147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
         <v>180</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E147" t="s">
         <v>11</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F147" t="s">
         <v>181</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>377</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>378</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I105" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="多选题"/>
-        <filter val="选择题"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I105">
       <sortCondition ref="C2:C105"/>
       <sortCondition ref="D2:D105"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I148">
+    <sortCondition ref="C2:C148"/>
+    <sortCondition ref="D2:D148"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
